--- a/Result/Orbit/Service/AUS.xlsx
+++ b/Result/Orbit/Service/AUS.xlsx
@@ -463,7 +463,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>59.50010999359813</v>
+        <v>59.55937198191727</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>61.24874468069734</v>
+        <v>60.86760584206282</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>61.8935216033193</v>
+        <v>61.93031799152945</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>62.55959911574948</v>
+        <v>62.61564922674044</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>62.52566339061073</v>
+        <v>62.93737303863827</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>62.43297296315505</v>
+        <v>62.97363932651587</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>62.48231297149646</v>
+        <v>62.80420133693426</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>63.43740393379319</v>
+        <v>62.69750657340251</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>63.60619656885888</v>
+        <v>63.23458107888376</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>64.35908420354181</v>
+        <v>63.83948768175607</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>64.38066136534678</v>
+        <v>64.42108889605458</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>64.17506034244782</v>
+        <v>64.76673405670874</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>63.9761030944481</v>
+        <v>64.55695058506396</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>64.30586534747231</v>
+        <v>64.12259652006901</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>64.28204935168723</v>
+        <v>64.3191811624155</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>64.36243563356258</v>
+        <v>64.36865743932903</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>63.70864031345024</v>
+        <v>64.42319993350171</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>64.31800441856682</v>
+        <v>64.05456039876039</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>64.46163466621188</v>
+        <v>64.18989097110216</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>64.06945674146428</v>
+        <v>64.36769223333013</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>65.68996774782823</v>
+        <v>64.36238315058793</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>64.62608734901947</v>
+        <v>65.3286577520648</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>65.16198116553896</v>
+        <v>65.08704587363478</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>66.25047023861437</v>
+        <v>65.06823506439979</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>65.68628002950167</v>
+        <v>65.87254663477444</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>67.23042717287444</v>
+        <v>66.10659745459429</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>68.22132971073941</v>
+        <v>67.19629287979375</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -774,50 +774,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>68.17441067089844</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>68.19373134501873</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66.97667155434074</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.48633936644185</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>68.17441067089844</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>68.63638483402241</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67.29487877839586</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.63375393851898</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>68.17441067089844</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>69.03386051911349</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67.23935617296</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.89151020707038</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>68.17441067089844</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>69.11259141912231</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67.14589661794979</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71.62713751875489</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>68.17441067089844</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>69.5291503260548</v>
+      </c>
+      <c r="C6" t="n">
+        <v>66.93754779323545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.41117237229118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -865,7 +885,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>59.50010999359813</v>
+        <v>59.50042023197868</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>61.24874468069734</v>
+        <v>60.72183024719199</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>61.8935216033193</v>
+        <v>61.84015133265726</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>62.55959911574948</v>
+        <v>62.44855766315456</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>62.52566339061073</v>
+        <v>63.01806787110029</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>62.43297296315505</v>
+        <v>62.86901732939344</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>62.48231297149646</v>
+        <v>62.94228973505115</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>63.43740393379319</v>
+        <v>62.55919686154482</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>63.60619656885888</v>
+        <v>63.36567593789948</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>64.35908420354181</v>
+        <v>63.82188714826196</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>64.38066136534678</v>
+        <v>64.38673687500199</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>64.17506034244782</v>
+        <v>64.51446225532399</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>63.9761030944481</v>
+        <v>64.56041170563391</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>64.30586534747231</v>
+        <v>64.26821363373986</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>64.28204935168723</v>
+        <v>64.45578707489247</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>64.36243563356258</v>
+        <v>64.42202887288644</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>63.70864031345024</v>
+        <v>64.41488159705898</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>64.31800441856682</v>
+        <v>64.03054761866645</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>64.46163466621188</v>
+        <v>64.22490915710634</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>64.06945674146428</v>
+        <v>64.52566232939002</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>65.68996774782823</v>
+        <v>64.37594656558571</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>64.62608734901947</v>
+        <v>65.4633578869624</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>65.16198116553896</v>
+        <v>64.80333360059601</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>66.25047023861437</v>
+        <v>65.15509308254701</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>65.68628002950167</v>
+        <v>66.07609267273948</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>67.23042717287444</v>
+        <v>66.04071672254808</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>68.22132971073941</v>
+        <v>67.04016930508311</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>67.01452952684967</v>
+        <v>68.29528667760982</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>66.65724334842149</v>
+        <v>67.59768968841725</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>66.06471595311547</v>
+        <v>67.15011966562258</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>66.28080849487043</v>
+        <v>66.23124324958403</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>65.71380883498387</v>
+        <v>66.29532853768467</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1226,50 +1246,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>65.7587698994642</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>65.80077856288763</v>
+      </c>
+      <c r="C2" t="n">
+        <v>64.70888021737096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.18381957974906</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>65.7587698994642</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>65.93603437896761</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64.40975647447986</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.17812946727953</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>65.7587698994642</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>65.66808607806715</v>
+      </c>
+      <c r="C4" t="n">
+        <v>64.13733821421582</v>
+      </c>
+      <c r="D4" t="n">
+        <v>67.8090525216107</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>65.7587698994642</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>65.8562703281585</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63.88728938962179</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67.9956960875253</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>65.7587698994642</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>65.93664111426278</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63.59219483800049</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.49720680573522</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
